--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/Book2.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/Book2.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Data_CNBB" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_CNBB!$B$19:$L$19</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -1331,7 +1334,7 @@
     <numFmt numFmtId="170" formatCode="d/m"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -2487,9 +2490,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2758,229 +2761,232 @@
     <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2997,7 +3003,7 @@
     <cellStyle name="Обычный_%использ. уст. мощн.2005г." xfId="4"/>
     <cellStyle name="Обычный_Лист1" xfId="9"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="33">
     <dxf>
       <font>
         <b/>
@@ -3461,1071 +3467,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -5112,71 +4053,71 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="140"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="141" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="146"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -5211,50 +4152,50 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -5274,33 +4215,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130" t="s">
+      <c r="C12" s="126"/>
+      <c r="D12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
@@ -5308,131 +4249,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -6203,18 +5144,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
@@ -6224,6 +5153,18 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="D18:L18"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
@@ -6244,7 +5185,7 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B19" sqref="B19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,52 +5206,52 @@
     <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="169"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="89"/>
       <c r="M1" s="89"/>
-      <c r="N1" s="173" t="s">
+      <c r="N1" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="174" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174" t="s">
+      <c r="R1" s="153"/>
+      <c r="S1" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="174"/>
+      <c r="T1" s="153"/>
     </row>
     <row r="2" spans="2:20" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="175" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="175"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
@@ -6321,54 +5262,54 @@
       <c r="P2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="170">
+      <c r="Q2" s="150">
         <v>0.93520000000000003</v>
       </c>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170">
+      <c r="R2" s="150"/>
+      <c r="S2" s="150">
         <v>1.1951000000000001</v>
       </c>
-      <c r="T2" s="170"/>
+      <c r="T2" s="150"/>
     </row>
     <row r="3" spans="2:20" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169" t="s">
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
       <c r="M3" s="93"/>
       <c r="N3" s="91"/>
       <c r="O3" s="94"/>
       <c r="P3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="170">
+      <c r="Q3" s="150">
         <v>0</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170">
+      <c r="R3" s="150"/>
+      <c r="S3" s="150">
         <v>0</v>
       </c>
-      <c r="T3" s="170"/>
+      <c r="T3" s="150"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
@@ -6379,56 +5320,56 @@
       </c>
       <c r="M5" s="91"/>
       <c r="N5" s="106"/>
-      <c r="O5" s="155" t="s">
+      <c r="O5" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="156"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="109"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
-      <c r="E6" s="157" t="s">
+      <c r="E6" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="157"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
       <c r="N6" s="106"/>
-      <c r="O6" s="155" t="s">
+      <c r="O6" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="109"/>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
-      <c r="E7" s="158">
+      <c r="E7" s="164">
         <f>SUM(H20:H8798)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158">
+      <c r="F7" s="164"/>
+      <c r="G7" s="164">
         <f>SUM(J20:J8798)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="158"/>
+      <c r="H7" s="164"/>
       <c r="I7" s="91"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
@@ -6437,14 +5378,14 @@
       <c r="N7" s="106">
         <v>1</v>
       </c>
-      <c r="O7" s="159" t="s">
+      <c r="O7" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="109"/>
@@ -6468,49 +5409,49 @@
       <c r="T8" s="110"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
       <c r="G9" s="111"/>
       <c r="H9" s="91"/>
       <c r="I9" s="110"/>
-      <c r="J9" s="149" t="s">
+      <c r="J9" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
       <c r="M9" s="91"/>
-      <c r="N9" s="149" t="s">
+      <c r="N9" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="109"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="150" t="s">
+      <c r="E10" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="150"/>
-      <c r="G10" s="152" t="s">
+      <c r="F10" s="172"/>
+      <c r="G10" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="152"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="110"/>
-      <c r="J10" s="150" t="s">
+      <c r="J10" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="150"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="112" t="s">
         <v>93</v>
       </c>
@@ -6541,52 +5482,53 @@
       <c r="B11" s="109"/>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="148">
+      <c r="E11" s="175">
         <f>COUNTIF(N20:N8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148">
+      <c r="F11" s="175"/>
+      <c r="G11" s="175">
         <f>COUNTIF(Q20:Q8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="148"/>
+      <c r="H11" s="175"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="114">
+      <c r="J11" s="188">
+        <f>COUNTIF($L20:$L8800,"СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115">
-        <f>COUNTIF(L20:L8798,"агрегати не працюють")</f>
+      <c r="K11" s="189"/>
+      <c r="L11" s="114">
+        <f>COUNTIF($L20:$L8800,"агрегати не працюють")</f>
         <v>0</v>
       </c>
       <c r="M11" s="91"/>
-      <c r="N11" s="116">
-        <f>COUNT(N20:N8798)</f>
+      <c r="N11" s="115">
+        <f t="shared" ref="N11:T11" si="0">COUNT(N20:N8798)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="116">
-        <f>COUNT(O20:O8798)</f>
+      <c r="O11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="116">
-        <f>COUNT(P20:P8798)</f>
+      <c r="P11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="116">
-        <f>COUNT(Q20:Q8798)</f>
+      <c r="Q11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="116">
-        <f>COUNT(R20:R8798)</f>
+      <c r="R11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="116">
-        <f>COUNT(S20:S8798)</f>
+      <c r="S11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="116">
-        <f>COUNT(T20:T8798)</f>
+      <c r="T11" s="115">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6612,48 +5554,48 @@
       <c r="T12" s="110"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="109"/>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
-      <c r="E14" s="150" t="s">
+      <c r="E14" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="151" t="s">
+      <c r="F14" s="172"/>
+      <c r="G14" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="150" t="s">
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="150"/>
-      <c r="L14" s="118" t="s">
+      <c r="K14" s="172"/>
+      <c r="L14" s="117" t="s">
         <v>97</v>
       </c>
       <c r="M14" s="91"/>
@@ -6683,102 +5625,102 @@
       <c r="B15" s="109"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
-      <c r="E15" s="148">
+      <c r="E15" s="175">
         <f>COUNTIF(E20:E8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148">
+      <c r="F15" s="175"/>
+      <c r="G15" s="175">
         <f>COUNTIF(G20:G8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148">
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175">
         <f>COUNTIF(I20:I8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="119">
+      <c r="K15" s="175"/>
+      <c r="L15" s="118">
         <f>COUNTIF(K20:K8798,"&gt;0")</f>
         <v>0</v>
       </c>
       <c r="M15" s="91"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116">
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115">
         <f>SUM(P20:P8798)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116">
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115">
         <f>SUM(S20:S8798)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="116">
+      <c r="T15" s="115">
         <f>SUM(T20:T8798)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="163" t="s">
+      <c r="E17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="163" t="s">
+      <c r="F17" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="163" t="s">
+      <c r="G17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="161" t="s">
+      <c r="H17" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="163" t="s">
+      <c r="I17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="161" t="s">
+      <c r="J17" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="163" t="s">
+      <c r="K17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="165" t="s">
+      <c r="L17" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="167" t="s">
+      <c r="N17" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="O17" s="167"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="153" t="s">
+      <c r="O17" s="171"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="R17" s="153"/>
-      <c r="S17" s="154"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="159"/>
       <c r="T17" s="102"/>
     </row>
     <row r="18" spans="2:20" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="166"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="170"/>
       <c r="N18" s="95" t="s">
         <v>82</v>
       </c>
@@ -6862,7 +5804,7 @@
       <c r="B20" s="105">
         <v>44562.041666666657</v>
       </c>
-      <c r="C20" s="188">
+      <c r="C20" s="119">
         <v>44562.041666666657</v>
       </c>
       <c r="D20" s="106"/>
@@ -6919,16 +5861,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+  <autoFilter ref="B19:L19"/>
+  <mergeCells count="51">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:T9"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="Q3:R3"/>
@@ -6945,31 +5905,15 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="Q2:Q3 S2:S3">
     <cfRule type="containsBlanks" dxfId="31" priority="79">
@@ -7074,7 +6018,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8099,11 +7043,11 @@
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
@@ -8158,11 +7102,11 @@
       <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
       <c r="E5" s="34">
         <f>Data_CNBB!G7</f>
         <v>0</v>
@@ -8179,11 +7123,11 @@
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="34">
         <f>Data_CNBB!$T$15/1000000000</f>
         <v>0</v>
@@ -8200,11 +7144,11 @@
       <c r="A7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="38">
         <f>E6*298</f>
         <v>0</v>
@@ -8221,11 +7165,11 @@
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="40">
         <f>IFERROR(Data_CNBB!$T$15/1000000/E5, 0)</f>
         <v>0</v>
@@ -8313,12 +7257,12 @@
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -8326,12 +7270,12 @@
       <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="183"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -8339,12 +7283,12 @@
       <c r="B18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -8369,23 +7313,23 @@
       <c r="A21" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="185"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="181" t="s">
+      <c r="B22" s="184"/>
+      <c r="C22" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="181"/>
+      <c r="D22" s="186"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
@@ -8410,48 +7354,48 @@
       <c r="B25" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="182" t="s">
+      <c r="C25" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="183"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="183"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="183"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="183"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -8481,10 +7425,10 @@
       <c r="A32" s="57">
         <v>3</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
@@ -8518,36 +7462,36 @@
       <c r="B36" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="177"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="183"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
       <c r="B37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="177"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="183"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="176" t="s">
+      <c r="C38" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="177"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="183"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
@@ -8559,6 +7503,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
@@ -8571,13 +7522,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
